--- a/Data/workday_data.xlsx
+++ b/Data/workday_data.xlsx
@@ -1,40 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="dem_res" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dem_res" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -365,598 +420,604 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AV4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" s="1" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:48">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>21643.25</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>21797.56153846154</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>21503.35384615384</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>21079.38846153846</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>20764.51538461538</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>20574.46923076923</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>20426.62692307692</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>20302.35384615384</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>20530.95384615385</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>21029.78461538461</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>22478.03076923077</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>23918.95769230769</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>26182.40769230769</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>27788.47307692308</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>29429.45</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>30027.38076923077</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>30637.06538461538</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>30622.11153846154</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>30597.95</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>30352.35384615384</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>30095.53461538461</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>29875.53076923077</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>29824.53461538461</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>29639.15</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>29526.36538461538</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>29302.85384615384</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>29178.19230769231</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>29061.39230769231</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>29130.13461538462</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>29487.54615384615</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>30113.96153846154</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>31019.94230769231</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>32125.33846153846</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>33013.87307692308</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>33695.48076923077</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>33957.61538461538</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>33899.03461538462</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>33539.63076923077</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>32926.95384615385</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>32134.85384615384</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>31178.28076923077</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>30044.11538461538</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>28719.24230769231</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>27245.83076923077</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>25614.06153846154</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>24240.6</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>22993.22692307692</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>22197.13846153846</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>6878.469230769231</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>6837.515384615384</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>6798.253846153846</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>6787.653846153846</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>6737.696153846154</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>6693.296153846154</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>6667.796153846154</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>6629.8</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>6594.965384615384</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>6574.792307692308</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>6587.430769230769</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>6622.776923076923</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>6648.476923076923</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>6697.3</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>6742.184615384615</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>6768.188461538462</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>6778.303846153846</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>6832.35</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>6866.957692307692</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>6875.823076923077</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>6885.038461538462</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>6857.969230769231</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>6928.323076923077</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>7012.884615384615</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>7066.661538461539</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>7110.961538461538</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>7145.034615384616</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>7161.680769230769</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>7167.630769230769</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>7157.942307692308</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>7159.8</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>7178.26923076923</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>7188.157692307693</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>7195.430769230769</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>7227.23076923077</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>7247.134615384615</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>7225.830769230769</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>7217.996153846154</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>7228.85</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>7237.138461538461</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>7244.076923076923</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>7245.976923076923</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>7236.253846153846</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>7206.588461538461</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>7146.6</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>7081.088461538461</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>7013.25</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>6915.957692307692</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1.110660877766538E-06</v>
-      </c>
-      <c r="G4">
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.110660877766538e-06</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.362582525150929</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>22.44099571873989</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>85.12931073741886</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>202.7054874796949</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>380.085418718006</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>631.1295483438878</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>944.0134181029915</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>1315.218148872757</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>1752.254017051433</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>2234.501723322044</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>2773.557218415539</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>3307.163959909447</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>3794.59544613133</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>4185.071436475002</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>4518.965211255408</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>4729.651852691824</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>4819.487322375517</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>4815.602167492642</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>4729.494034365699</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>4501.098920219879</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>4140.436069319033</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>3728.37319709746</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>3214.694885912861</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>2654.93576137676</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>2119.728810514287</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>1631.148140500961</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>1190.178033308598</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>809.5015761750935</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>504.6386346081832</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>280.3528645332901</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>132.5467641042304</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>44.77249203882835</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>6.479123892940546</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>0.01766386096066547</v>
       </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>